--- a/Monthly/Forecast/Stationaritiy/Percentage Return/NIKKEI.xlsx
+++ b/Monthly/Forecast/Stationaritiy/Percentage Return/NIKKEI.xlsx
@@ -417,13 +417,13 @@
         <v>106</v>
       </c>
       <c r="C2">
-        <v>-0.08736853541730893</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-10.46733276590806</v>
+        <v>-10.38504044475494</v>
       </c>
       <c r="E2">
-        <v>10.29259569507344</v>
+        <v>10.38504044475494</v>
       </c>
       <c r="F2">
         <v>-5.94610946362053</v>
@@ -437,13 +437,13 @@
         <v>107</v>
       </c>
       <c r="C3">
-        <v>0.2358285522460322</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-10.15482700881806</v>
+        <v>-10.39762074701909</v>
       </c>
       <c r="E3">
-        <v>10.62648411331012</v>
+        <v>10.39762074701909</v>
       </c>
       <c r="F3">
         <v>4.774602803421679</v>
@@ -457,13 +457,13 @@
         <v>108</v>
       </c>
       <c r="C4">
-        <v>-0.2921621357326438</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-10.6694734511543</v>
+        <v>-10.38847369186071</v>
       </c>
       <c r="E4">
-        <v>10.08514917968902</v>
+        <v>10.38847369186071</v>
       </c>
       <c r="F4">
         <v>-7.890924052605008</v>
@@ -477,13 +477,13 @@
         <v>109</v>
       </c>
       <c r="C5">
-        <v>0.6045615351930369</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-9.821405252119362</v>
+        <v>-10.44628257347959</v>
       </c>
       <c r="E5">
-        <v>11.03052832250544</v>
+        <v>10.44628257347959</v>
       </c>
       <c r="F5">
         <v>-0.8670154043461054</v>
@@ -497,13 +497,13 @@
         <v>110</v>
       </c>
       <c r="C6">
-        <v>-0.1459283147250319</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-10.52793127542887</v>
+        <v>-10.39995329011363</v>
       </c>
       <c r="E6">
-        <v>10.23607464597881</v>
+        <v>10.39995329011363</v>
       </c>
       <c r="F6">
         <v>3.013433673554111</v>
@@ -517,13 +517,13 @@
         <v>111</v>
       </c>
       <c r="C7">
-        <v>-0.1384218614471677</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-10.4899884564075</v>
+        <v>-10.36816761334789</v>
       </c>
       <c r="E7">
-        <v>10.21314473351317</v>
+        <v>10.36816761334789</v>
       </c>
       <c r="F7">
         <v>-3.111047620080676</v>
@@ -537,13 +537,13 @@
         <v>112</v>
       </c>
       <c r="C8">
-        <v>0.210927177354878</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-10.10895412083573</v>
+        <v>-10.33784622770047</v>
       </c>
       <c r="E8">
-        <v>10.53080847554549</v>
+        <v>10.33784622770047</v>
       </c>
       <c r="F8">
         <v>2.356054081628223</v>
@@ -557,13 +557,13 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>-0.1900668606079982</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-10.47175664875934</v>
+        <v>-10.30116580939227</v>
       </c>
       <c r="E9">
-        <v>10.09162292754334</v>
+        <v>10.30116580939227</v>
       </c>
       <c r="F9">
         <v>-5.703630079528921</v>
@@ -577,13 +577,13 @@
         <v>114</v>
       </c>
       <c r="C10">
-        <v>0.4180712386747341</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-9.868116262265483</v>
+        <v>-10.30919217481127</v>
       </c>
       <c r="E10">
-        <v>10.70425873961495</v>
+        <v>10.30919217481127</v>
       </c>
       <c r="F10">
         <v>7.634968768421935</v>
@@ -597,13 +597,13 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <v>-0.7290525805790402</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-11.05390447316828</v>
+        <v>-10.35869471253415</v>
       </c>
       <c r="E11">
-        <v>9.5957993120102</v>
+        <v>10.35869471253415</v>
       </c>
       <c r="F11">
         <v>-1.192647242492306</v>
@@ -617,13 +617,13 @@
         <v>116</v>
       </c>
       <c r="C12">
-        <v>0.3079967496214051</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-9.972588794319371</v>
+        <v>-10.31623188584017</v>
       </c>
       <c r="E12">
-        <v>10.58858229356218</v>
+        <v>10.31623188584017</v>
       </c>
       <c r="F12">
         <v>-5.367863032781806</v>
@@ -637,13 +637,13 @@
         <v>117</v>
       </c>
       <c r="C13">
-        <v>0.3567401618320432</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-9.930574851027082</v>
+        <v>-10.317999359395</v>
       </c>
       <c r="E13">
-        <v>10.64405517469117</v>
+        <v>10.317999359395</v>
       </c>
       <c r="F13">
         <v>5.430924458193331</v>
@@ -657,13 +657,13 @@
         <v>118</v>
       </c>
       <c r="C14">
-        <v>-0.5066719819972065</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-10.7906174535669</v>
+        <v>-10.32081068809786</v>
       </c>
       <c r="E14">
-        <v>9.777273489572492</v>
+        <v>10.32081068809786</v>
       </c>
       <c r="F14">
         <v>1.957526618827821</v>
@@ -677,13 +677,13 @@
         <v>119</v>
       </c>
       <c r="C15">
-        <v>-0.1011851224053062</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-10.35128208373874</v>
+        <v>-10.28337092488097</v>
       </c>
       <c r="E15">
-        <v>10.14891183892813</v>
+        <v>10.28337092488097</v>
       </c>
       <c r="F15">
         <v>-9.309959238537857</v>
@@ -697,13 +697,13 @@
         <v>120</v>
       </c>
       <c r="C16">
-        <v>0.7752636055242803</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-9.562578671684863</v>
+        <v>-10.37503027382677</v>
       </c>
       <c r="E16">
-        <v>11.11310588273342</v>
+        <v>10.37503027382677</v>
       </c>
       <c r="F16">
         <v>6.145569335744838</v>
@@ -717,13 +717,13 @@
         <v>121</v>
       </c>
       <c r="C17">
-        <v>-0.5700771489710237</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-10.90821355386152</v>
+        <v>-10.38993474196717</v>
       </c>
       <c r="E17">
-        <v>9.768059255919477</v>
+        <v>10.38993474196717</v>
       </c>
       <c r="F17">
         <v>0.6184412461006872</v>
@@ -737,13 +737,13 @@
         <v>122</v>
       </c>
       <c r="C18">
-        <v>-0.1063117764378411</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-10.40408370778804</v>
+        <v>-10.34784736945265</v>
       </c>
       <c r="E18">
-        <v>10.19146015491235</v>
+        <v>10.34784736945265</v>
       </c>
       <c r="F18">
         <v>2.411480128450449</v>
@@ -757,13 +757,13 @@
         <v>123</v>
       </c>
       <c r="C19">
-        <v>-0.2390589827519607</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-10.50444839487689</v>
+        <v>-10.31450518788987</v>
       </c>
       <c r="E19">
-        <v>10.02633042937297</v>
+        <v>10.31450518788987</v>
       </c>
       <c r="F19">
         <v>3.263271921476552</v>
@@ -777,13 +777,13 @@
         <v>124</v>
       </c>
       <c r="C20">
-        <v>-0.3167757547612114</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-10.55921918086175</v>
+        <v>-10.28887517998567</v>
       </c>
       <c r="E20">
-        <v>9.92566767133933</v>
+        <v>10.28887517998567</v>
       </c>
       <c r="F20">
         <v>6.721594130024222</v>
@@ -797,13 +797,13 @@
         <v>125</v>
       </c>
       <c r="C21">
-        <v>-0.583890824162915</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-10.85926099505246</v>
+        <v>-10.31516201795855</v>
       </c>
       <c r="E21">
-        <v>9.691479346726624</v>
+        <v>10.31516201795855</v>
       </c>
       <c r="F21">
         <v>8.032867231782426</v>
@@ -817,13 +817,13 @@
         <v>126</v>
       </c>
       <c r="C22">
-        <v>-0.5245034844310228</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-10.86737113937595</v>
+        <v>-10.36944828939116</v>
       </c>
       <c r="E22">
-        <v>9.818364170513908</v>
+        <v>10.36944828939116</v>
       </c>
       <c r="F22">
         <v>-0.8232989711281391</v>
@@ -837,13 +837,13 @@
         <v>127</v>
       </c>
       <c r="C23">
-        <v>0.110583566562052</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-10.19161116979126</v>
+        <v>-10.32953551563267</v>
       </c>
       <c r="E23">
-        <v>10.41277830291537</v>
+        <v>10.32953551563267</v>
       </c>
       <c r="F23">
         <v>-2.31462642983562</v>
@@ -857,13 +857,13 @@
         <v>128</v>
       </c>
       <c r="C24">
-        <v>0.159151564967481</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-10.11125850107035</v>
+        <v>-10.29691737805281</v>
       </c>
       <c r="E24">
-        <v>10.42956163100531</v>
+        <v>10.29691737805281</v>
       </c>
       <c r="F24">
         <v>-2.949588447728857</v>
@@ -877,13 +877,13 @@
         <v>129</v>
       </c>
       <c r="C25">
-        <v>0.1919203518694908</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-10.05263145118152</v>
+        <v>-10.26955127429167</v>
       </c>
       <c r="E25">
-        <v>10.4364721549205</v>
+        <v>10.26955127429167</v>
       </c>
       <c r="F25">
         <v>-0.4994538288622508</v>
@@ -897,13 +897,13 @@
         <v>130</v>
       </c>
       <c r="C26">
-        <v>0.01865701238273931</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-10.18710676821904</v>
+        <v>-10.23033703422151</v>
       </c>
       <c r="E26">
-        <v>10.22442079298452</v>
+        <v>10.23033703422151</v>
       </c>
       <c r="F26">
         <v>5.628957304799975</v>
